--- a/DATA errphone.xlsx
+++ b/DATA errphone.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayng\GitHub\CRM\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C7E8B-5DB7-4380-BF5B-245483BC5484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>NGUYỄN THỊ MỘNG TUYỀN</t>
   </si>
@@ -73,12 +79,21 @@
   </si>
   <si>
     <t>DIA CHI</t>
+  </si>
+  <si>
+    <t>+84901836315</t>
+  </si>
+  <si>
+    <t>084907761666</t>
+  </si>
+  <si>
+    <t>0908364026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,10 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -151,6 +169,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +253,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -482,8 +537,8 @@
       <c r="B2" s="2">
         <v>312393112</v>
       </c>
-      <c r="C2" s="2">
-        <v>84901836315</v>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>20000000</v>
@@ -497,8 +552,8 @@
       <c r="B3" s="2">
         <v>34090010405</v>
       </c>
-      <c r="C3" s="2">
-        <v>84907761666</v>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>100000000</v>
@@ -542,8 +597,8 @@
       <c r="B6" s="2">
         <v>210102669</v>
       </c>
-      <c r="C6" s="2">
-        <v>908364026</v>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>31500000</v>
@@ -677,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -689,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
